--- a/biz_case_fe.xlsx
+++ b/biz_case_fe.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97ce27d4fc196741/바탕 화면/interiorbara_sql/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goott4\Desktop\interiorbara_sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{CB1E3971-C9DC-4CD6-8CD4-614A80A1F0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{990DB177-B66E-4B25-B72F-566DFF0353A3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A834E79F-6ED4-4972-8E0E-DEAF62B3B696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36435" yWindow="195" windowWidth="25185" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32550" yWindow="240" windowWidth="21975" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="477">
   <si>
     <t>블리자인</t>
   </si>
@@ -1943,6 +1954,14 @@
   </si>
   <si>
     <t>INTENO</t>
+  </si>
+  <si>
+    <t>memno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">point </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2315,9 +2334,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D716"/>
+  <dimension ref="A1:F716"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B716"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2327,7 +2348,7 @@
     <col min="4" max="4" width="69.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>474</v>
       </c>
@@ -2340,8 +2361,14 @@
       <c r="D1" s="4" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="E1" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="132" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>77215</v>
       </c>
@@ -2355,7 +2382,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="264" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>77215</v>
       </c>
@@ -2369,7 +2396,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>77215</v>
       </c>
@@ -2383,7 +2410,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="99" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>77215</v>
       </c>
@@ -2397,7 +2424,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>77215</v>
       </c>
@@ -2411,7 +2438,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>98137</v>
       </c>
@@ -2425,7 +2452,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>98137</v>
       </c>
@@ -2439,7 +2466,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="99" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>98137</v>
       </c>
@@ -2453,7 +2480,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="99" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>98137</v>
       </c>
@@ -2467,7 +2494,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="132" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>98137</v>
       </c>
@@ -2481,7 +2508,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>23703</v>
       </c>
@@ -2495,7 +2522,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="165" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23703</v>
       </c>
@@ -2509,7 +2536,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>23703</v>
       </c>
@@ -2523,7 +2550,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>23703</v>
       </c>
@@ -2537,7 +2564,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="198" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>23703</v>
       </c>
